--- a/data/Exportações-dos-produtos-de-origem-florestal.xlsx
+++ b/data/Exportações-dos-produtos-de-origem-florestal.xlsx
@@ -25,6 +25,36 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.889in"/>
     </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.2043in"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.0217in"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.3217in"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.1181in"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.6898in"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.5256in"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.4398in"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.0937in"/>
+    </style:style>
+    <style:style style:name="co10" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.0535in"/>
+    </style:style>
+    <style:style style:name="co11" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.7937in"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.178in" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
@@ -36,7 +66,18 @@
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="13" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co10" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co11" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Anos</text:p>
@@ -57,10 +98,10 @@
             <text:p>Madeira serrada</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Lenhas (inclui pellets)</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Folhas p/ folheados, painéis, madeira contraplacada, folheada e densificada</text:p>
+            <text:p>Lenhas</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Madeira contraplacada</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Mobiliário de madeira</text:p>
@@ -69,7 +110,7 @@
             <text:p>Construções à base de madeira</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Pasta de papel e papel para reciclar</text:p>
+            <text:p>Pasta de papel</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Papel e cartão</text:p>
@@ -499,11 +540,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2023-11-22T17:46:36.522912254</meta:creation-date>
-    <dc:date>2023-11-22T17:48:43.201471666</dc:date>
-    <meta:editing-duration>PT2M7S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
+    <dc:date>2023-11-27T00:28:24.029640343</dc:date>
+    <meta:editing-duration>PT4M14S</meta:editing-duration>
+    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="143" meta:object-count="0"/>
-    <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
   </office:meta>
 </office:document-meta>
 </file>
@@ -514,15 +555,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">29351</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">40793</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">4967</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -536,7 +577,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1527</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1847</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -581,9 +622,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">DESKJET-930C</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0RFU0tKRVQtOTMwQwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpERVNLSkVULTkzMEMAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9REVTS0pFVC05MzBDCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
@@ -595,6 +636,7 @@
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
       <config:config-item-map-named config:name="ScriptConfiguration">
         <config:config-item-map-entry config:name="Sheet1">
@@ -622,292 +664,286 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N145P0" style:volatile="true">
-      <number:text>Pre </number:text>
-      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N145">
-      <number:text>Pre -</number:text>
-      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N145P0"/>
-    </number:number-style>
-    <number:number-style style:name="N144P0" style:volatile="true">
-      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N144">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N144P0"/>
-    </number:number-style>
-    <number:number-style style:name="N143">
-      <number:scientific-number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" number:exponent-interval="3" number:forced-exponent-sign="true"/>
-    </number:number-style>
-    <number:time-style style:name="N142">
+    <number:date-style style:name="N163">
+      <number:month/>
+      <number:text>/</number:text>
+      <number:day/>
+      <number:text>/</number:text>
+      <number:year number:style="long"/>
+      <number:text> </number:text>
+      <number:hours/>
+      <number:text>:</number:text>
       <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long" number:decimal-places="1"/>
-    </number:time-style>
-    <number:time-style style:name="N141" number:truncate-on-overflow="false">
+    </number:date-style>
+    <number:time-style style:name="N162">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N140">
+    <number:time-style style:name="N160">
+      <number:hours/>
+      <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
-    <number:currency-style style:name="N139P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N139P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
+    <number:time-style style:name="N159">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
+    </number:time-style>
+    <number:date-style style:name="N158">
+      <number:month number:textual="true"/>
+      <number:text>-</number:text>
+      <number:year/>
+    </number:date-style>
+    <number:currency-style style:name="N151P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N151">
+      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N139P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N139">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N139P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N139P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N139P2"/>
-    </number:text-style>
-    <number:number-style style:name="N138P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N138P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N138P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:text-style style:name="N138">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N138P2"/>
-    </number:text-style>
-    <number:currency-style style:name="N137P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N137P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
-      <number:text>(</number:text>
+      <number:currency-symbol/>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N137P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:fill-character> </number:fill-character>
-      <number:text>- </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N137">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N137P2"/>
-    </number:text-style>
-    <number:number-style style:name="N136P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N151P0"/>
+    </number:currency-style>
+    <number:number-style style:name="N122P0" style:volatile="true">
+      <number:text>Pre </number:text>
+      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N122">
+      <number:text>Pre -</number:text>
+      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N122P0"/>
+    </number:number-style>
+    <number:number-style style:name="N148P0" style:volatile="true">
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N136P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N136P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N136">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N136P2"/>
-    </number:text-style>
-    <number:number-style style:name="N135P0" style:volatile="true">
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N135">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N135P0"/>
-    </number:number-style>
-    <number:number-style style:name="N134P0" style:volatile="true">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N134">
+    <number:number-style style:name="N148">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N134P0"/>
-    </number:number-style>
-    <number:currency-style style:name="N121P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N148P0"/>
+    </number:number-style>
+    <number:currency-style style:name="N153P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N153">
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N153P0"/>
+    </number:currency-style>
+    <number:number-style style:name="N124P0" style:volatile="true">
+      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N124">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N124P0"/>
+    </number:number-style>
+    <number:currency-style style:name="N150P0" style:volatile="true">
       <number:currency-symbol/>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N121">
+    <number:currency-style style:name="N150">
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N122P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N122">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N150P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N154P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N154">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N122P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N123P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N123">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N123P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N124P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N124">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N124P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N125">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N154P0"/>
+    </number:currency-style>
+    <number:number-style style:name="N125">
+      <number:scientific-number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" number:exponent-interval="3" number:forced-exponent-sign="true"/>
+    </number:number-style>
+    <number:date-style style:name="N155">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N126">
+    <number:time-style style:name="N126">
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long" number:decimal-places="1"/>
+    </number:time-style>
+    <number:date-style style:name="N156">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N127">
-      <number:day/>
-      <number:text>-</number:text>
-      <number:month number:textual="true"/>
-    </number:date-style>
-    <number:date-style style:name="N128">
-      <number:month number:textual="true"/>
-      <number:text>-</number:text>
-      <number:year/>
-    </number:date-style>
-    <number:time-style style:name="N129">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N130">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N131">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-    </number:time-style>
-    <number:time-style style:name="N132">
+    <number:time-style style:name="N127" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:date-style style:name="N133">
-      <number:month/>
-      <number:text>/</number:text>
+    <number:currency-style style:name="N140P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N140P1" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N140P2" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:text>- </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N140">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N140P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N140P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N140P2"/>
+    </number:text-style>
+    <number:date-style style:name="N157">
       <number:day/>
-      <number:text>/</number:text>
-      <number:year number:style="long"/>
-      <number:text> </number:text>
+      <number:text>-</number:text>
+      <number:month number:textual="true"/>
+    </number:date-style>
+    <number:time-style style:name="N128">
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N161">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
-    </number:date-style>
+    </number:time-style>
+    <number:currency-style style:name="N132P0" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N132P1" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N132P2" style:volatile="true">
+      <number:currency-symbol/>
+      <number:fill-character> </number:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N132">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N132P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N132P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N132P2"/>
+    </number:text-style>
+    <number:number-style style:name="N136P0" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N136P1" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N136P2" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:text-style style:name="N136">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N136P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N136P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N136P2"/>
+    </number:text-style>
+    <number:number-style style:name="N144P0" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N144P1" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N144P2" style:volatile="true">
+      <number:text> </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N144">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N144P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N144P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N144P2"/>
+    </number:text-style>
+    <number:number-style style:name="N146P0" style:volatile="true">
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N146">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N146P0"/>
+    </number:number-style>
     <style:style style:name="Default" style:family="table-cell"/>
     <style:style style:name="Heading" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:color="#000000" fo:font-size="24pt" fo:font-style="normal" fo:font-weight="bold" style:font-size-asian="24pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="24pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
